--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.15/avg_0.003_scores.xlsx
@@ -58,217 +58,217 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>really</t>
   </si>
   <si>
     <t>use</t>
@@ -701,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2945736434108527</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +825,13 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +851,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +877,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +903,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +929,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8452012383900929</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L9">
-        <v>546</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>546</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
         <v>33</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,10 +984,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1007,13 +1007,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1033,13 +1033,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6888888888888889</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1059,13 +1059,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6711864406779661</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0.6380417335473515</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>795</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>795</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.647887323943662</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1137,13 +1137,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6461538461538462</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1163,13 +1163,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6438356164383562</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1189,13 +1189,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1215,13 +1215,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6163723916532905</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L20">
-        <v>768</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>768</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>478</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1241,13 +1241,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6122448979591837</v>
+        <v>0.5942857142857143</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1267,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1293,13 +1293,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1319,13 +1319,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5857142857142857</v>
+        <v>0.578125</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1345,13 +1345,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1371,13 +1371,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5771428571428572</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1397,13 +1397,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5480769230769231</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1423,25 +1423,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5263157894736842</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L28">
+        <v>33</v>
+      </c>
+      <c r="M28">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>30</v>
-      </c>
-      <c r="M28">
-        <v>30</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1449,13 +1449,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5230769230769231</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1475,13 +1475,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5209580838323353</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L30">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1501,25 +1501,25 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.515625</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>32</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>33</v>
-      </c>
-      <c r="M31">
-        <v>33</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1527,13 +1527,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5079365079365079</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1553,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5060240963855421</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1579,13 +1579,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4901960784313725</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1605,13 +1605,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4871794871794872</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L35">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="M35">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1631,13 +1631,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4489795918367347</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1657,13 +1657,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1683,13 +1683,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4135338345864661</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L38">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1709,13 +1709,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4078947368421053</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1735,13 +1735,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4036144578313253</v>
+        <v>0.39</v>
       </c>
       <c r="L40">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1761,13 +1761,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3947368421052632</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1787,13 +1787,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3928571428571428</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1813,25 +1813,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.39</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>39</v>
-      </c>
-      <c r="M43">
-        <v>39</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1839,13 +1839,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3770491803278688</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1865,13 +1865,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3492063492063492</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1891,13 +1891,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3357843137254902</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L46">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>271</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1917,13 +1917,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3308270676691729</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1943,13 +1943,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3243243243243243</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1969,13 +1969,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.3229571984435798</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1995,13 +1995,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2871287128712871</v>
+        <v>0.2918287937743191</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2021,13 +2021,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2805755395683453</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2047,13 +2047,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2767123287671233</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L52">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M52">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2073,13 +2073,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.25</v>
+        <v>0.2443487621097955</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>81</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2099,13 +2099,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2465016146393972</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L54">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>700</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2125,13 +2125,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2344497607655502</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L55">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2151,13 +2151,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2251655629139073</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2177,13 +2177,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2080536912751678</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L57">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2203,13 +2203,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2068965517241379</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L58">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M58">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2229,13 +2229,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2018348623853211</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2255,13 +2255,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1801324503311258</v>
+        <v>0.1682119205298013</v>
       </c>
       <c r="L60">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M60">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2281,25 +2281,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1687979539641944</v>
+        <v>0.1533742331288344</v>
       </c>
       <c r="L61">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>650</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2307,13 +2307,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1411042944785276</v>
+        <v>0.149616368286445</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>140</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2333,13 +2333,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.134020618556701</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M63">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2359,13 +2359,13 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1297297297297297</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L64">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M64">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N64">
         <v>0.98</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2385,13 +2385,13 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1280788177339902</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>177</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2411,13 +2411,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.121654501216545</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L66">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>361</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2437,13 +2437,13 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.09663865546218488</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2463,13 +2463,13 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.09318181818181819</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L68">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>399</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2489,13 +2489,13 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.09307875894988067</v>
+        <v>0.1068181818181818</v>
       </c>
       <c r="L69">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M69">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2515,13 +2515,13 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.09225092250922509</v>
+        <v>0.1</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2541,13 +2541,13 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.08888888888888889</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L71">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>246</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2567,13 +2567,13 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.08771929824561403</v>
+        <v>0.0883054892601432</v>
       </c>
       <c r="L72">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M72">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2593,13 +2593,13 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.06876790830945559</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L73">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M73">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>650</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2619,25 +2619,25 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.06598984771573604</v>
+        <v>0.06456241032998565</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>368</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2645,25 +2645,25 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.06535947712418301</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L75">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1001</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2671,13 +2671,13 @@
         <v>85</v>
       </c>
       <c r="K76">
-        <v>0.02422145328719723</v>
+        <v>0.0259515570934256</v>
       </c>
       <c r="L76">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N76">
         <v>0.97</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
